--- a/biology/Zoologie/Bamanophis_dorri/Bamanophis_dorri.xlsx
+++ b/biology/Zoologie/Bamanophis_dorri/Bamanophis_dorri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bamanophis dorri, unique représentant du genre Bamanophis, est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bamanophis dorri, unique représentant du genre Bamanophis, est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord du Bénin, au Burkina Faso, dans le nord du Ghana, au Mali, en Mauritanie, au Sénégal et au Togo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord du Bénin, au Burkina Faso, dans le nord du Ghana, au Mali, en Mauritanie, au Sénégal et au Togo.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa description Fernand Lataste indique que le spécimen adulte en sa possession mesure 73,5 cm dont 9,6 cm pour la queue tout en précisant que celle-ci lui parait incomplète.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du capitaine M. E. Dorr[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du capitaine M. E. Dorr.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lataste, 1888 : Description d’un ophidien diacrantérien nouveau. Le Naturaliste : journal des échanges et des nouvelles, sér. 2, vol. 2, p. 227 (texte intégral).
 Schätti &amp; Trape, 2008 : Bamanophis, a new genus for the West African colubrid Periops dorri Lataste, 1888 (Reptilia: Squamata: Colubrinae). Revue Suisse de Zoologie, vol. 115, no 4, p. 595-615 (texte intégral).</t>
